--- a/test_spi/C_test output.xlsx
+++ b/test_spi/C_test output.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angelinia\Documents\CIS 565\CUDA-SPICE-Circuit-Sim\test_spi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8884313-B6AF-4C7F-A5F6-C7667FA0ED76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81F7D82E-0144-4C28-9264-E93161A9E466}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="6336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10080" windowHeight="6336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="transient" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="transient" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="15">
   <si>
     <t>Time(s)</t>
   </si>
@@ -62,6 +63,21 @@
   </si>
   <si>
     <t>10ns width, 20 ns period, 200ps rise and fall, 1V peak</t>
+  </si>
+  <si>
+    <t>net@14</t>
+  </si>
+  <si>
+    <t>net@3</t>
+  </si>
+  <si>
+    <t>net@13</t>
+  </si>
+  <si>
+    <t>vdd</t>
+  </si>
+  <si>
+    <t>]</t>
   </si>
 </sst>
 </file>
@@ -5716,6 +5732,3143 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>net@14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1.9000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9009999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9020000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9029999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.904E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9049999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.905999E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9069990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.907999E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9089990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9099989999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9109990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9119989999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.912999E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9139990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.914999E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9159990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9169979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9179980000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9189979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.919998E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9209980000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.921998E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9229980000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9239979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9249980000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9259979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.926998E-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9279970000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.928997E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9299970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9309969999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9319970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9329969999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.933997E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9349970000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.935997E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9369970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9379969999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9389970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9399959999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.940996E-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9419959999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.942996E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9439960000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9449959999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9459960000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9469959999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.947996E-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9489960000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.949996E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9509950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9519949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9529950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9539949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.954995E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9559949999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.956995E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9579950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9589949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9599950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9609949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.961994E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9629939999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.963994E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9649940000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9659939999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9669940000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9679939999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.968994E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9699939999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.970994E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9719940000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9729939999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9739930000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9749929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.975993E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9769929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.977993E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9789930000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9799929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9809930000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9819929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.982993E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9839929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.984992E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9859920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.986992E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9879920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9889919999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.989992E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9909919999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.991992E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9929920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.993992E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9949920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9959909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9969910000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9979909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.998991E-8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9999910000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.000991E-8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0019910000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0029909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0039910000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0049909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.005991E-8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0069900000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.00799E-8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.0089900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0099899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.0109900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.0119899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.01299E-8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.0139900000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.01499E-8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.0159900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0169899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.0179900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.0189889999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.019989E-8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.0209890000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.021989E-8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.0229890000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0239889999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.0249890000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.0259889999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.026989E-8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.0279890000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.028989E-8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.0299880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.0309879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.0319880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.0329879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.033988E-8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0349879999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.035988E-8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.0369880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0379879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.0389880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0399879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.040987E-8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0419869999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.042987E-8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0439870000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0449869999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.0459870000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.0469869999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.047987E-8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.0489869999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.049987E-8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.0509870000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.0519859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.0529860000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.0539859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.054986E-8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.0559859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.056986E-8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.0579860000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.0589859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.0599860000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.0609859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.061986E-8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.0629859999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.063985E-8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.0649850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.065985E-8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.0669850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.0679849999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.068985E-8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.0699849999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.070985E-8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.0719850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.072985E-8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.0739850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.0749839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.0759840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.0769839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.077984E-8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.0789840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.079984E-8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.0809840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.0819839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.0829840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0839839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.084984E-8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.0859830000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.086983E-8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.0879830000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.0889829999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.0899830000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.0909829999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.091983E-8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.0929830000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.093983E-8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.0949830000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.0959829999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.0969820000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.0979819999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.098982E-8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.0999999999999999E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.399154E-12</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-3.5463599999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-4.4708449999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-5.9561469999999997E-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-8.9205739999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.7757220000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.852815E-5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.8498549999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.99988739999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26A9-494F-A144-31F89D35B643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>net@3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1.9000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9009999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9020000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9029999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.904E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9049999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.905999E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9069990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.907999E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9089990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9099989999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9109990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9119989999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.912999E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9139990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.914999E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9159990000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9169979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9179980000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9189979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.919998E-8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9209980000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.921998E-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9229980000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9239979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9249980000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9259979999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.926998E-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9279970000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.928997E-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9299970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9309969999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9319970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9329969999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.933997E-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9349970000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.935997E-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9369970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9379969999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9389970000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9399959999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.940996E-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.9419959999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.942996E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9439960000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9449959999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9459960000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9469959999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.947996E-8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9489960000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.949996E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9509950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9519949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9529950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9539949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.954995E-8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9559949999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.956995E-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9579950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9589949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9599950000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9609949999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.961994E-8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9629939999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.963994E-8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9649940000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9659939999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.9669940000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9679939999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.968994E-8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9699939999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.970994E-8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9719940000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9729939999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9739930000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9749929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.975993E-8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9769929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.977993E-8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9789930000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9799929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.9809930000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9819929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.982993E-8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9839929999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.984992E-8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9859920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.986992E-8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9879920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9889919999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.989992E-8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9909919999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.991992E-8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9929920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.993992E-8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9949920000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9959909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9969910000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9979909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.998991E-8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9999910000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.000991E-8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0019910000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0029909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0039910000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0049909999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.005991E-8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0069900000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.00799E-8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.0089900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0099899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.0109900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.0119899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.01299E-8</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.0139900000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.01499E-8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.0159900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0169899999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.0179900000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.0189889999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.019989E-8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.0209890000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.021989E-8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.0229890000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0239889999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.0249890000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.0259889999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.026989E-8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.0279890000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.028989E-8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.0299880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.0309879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.0319880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.0329879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.033988E-8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.0349879999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.035988E-8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.0369880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.0379879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.0389880000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.0399879999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.040987E-8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0419869999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.042987E-8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0439870000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0449869999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.0459870000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.0469869999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.047987E-8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.0489869999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.049987E-8</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2.0509870000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.0519859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.0529860000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.0539859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.054986E-8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.0559859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2.056986E-8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.0579860000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.0589859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.0599860000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2.0609859999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.061986E-8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.0629859999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.063985E-8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.0649850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.065985E-8</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.0669850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.0679849999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.068985E-8</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.0699849999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.070985E-8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.0719850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.072985E-8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.0739850000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.0749839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.0759840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.0769839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.077984E-8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.0789840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.079984E-8</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.0809840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.0819839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.0829840000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0839839999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.084984E-8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2.0859830000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.086983E-8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.0879830000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.0889829999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.0899830000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2.0909829999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.091983E-8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2.0929830000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.093983E-8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2.0949830000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.0959829999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.0969820000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.0979819999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.098982E-8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.0999999999999999E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$202</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.95044850000000003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.90045299999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.85045740000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.8004618</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.75046630000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.7004707</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.65047509999999997</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.6004796</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.55048410000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.5004885</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.45049289999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.4004973</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.35050179999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.3005062</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.25051060000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.2005151</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.1505195</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.1005239</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0528410000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.3286550000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-26A9-494F-A144-31F89D35B643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570659576"/>
+        <c:axId val="566898328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570659576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0500000000000008E-8"/>
+          <c:min val="1.9500000000000009E-8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566898328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566898328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570659576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>net@14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$35:$L$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.0100000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0105E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0109999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0114999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0120000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0125E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0129999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0135000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.014E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0144999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0149999999999998E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0155000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.016001E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0165009999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0170010000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.017501E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0180009999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0185010000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0190010000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.019501E-8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0199999999999999E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$35:$M$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.7809579999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.69279E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99955150000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999979999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99999979999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99999990000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-551B-4AAB-9AE7-BE205841BBF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="922573184"/>
+        <c:axId val="922574824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="922573184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922574824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="922574824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922573184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -7477,6 +10630,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8548,6 +11781,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8640,6 +12905,83 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B163A10-230B-4EAC-B722-C064589D431D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11236084-83D4-4C21-84EE-F772D90944A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9029,7 +13371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -17879,6 +22221,4452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36981C6-43E4-478F-8370-E3209AEE801E}">
+  <dimension ref="B1:Q202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>1.9009999999999999E-8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1.9020000000000001E-8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1.9029999999999999E-8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>1.904E-8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>1.9049999999999999E-8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>1.905999E-8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>1.9069990000000001E-8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1.907999E-8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>1.9089990000000001E-8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>1.9099989999999999E-8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>1.9109990000000001E-8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1.9119989999999999E-8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>1.912999E-8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1.9139990000000001E-8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>1.914999E-8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>1.9159990000000001E-8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>1.9169979999999999E-8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>1.9179980000000001E-8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>1.9189979999999999E-8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>1.919998E-8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>1.9209980000000002E-8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>1.921998E-8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>1.9229980000000001E-8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>1.9239979999999999E-8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>1.9249980000000001E-8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>1.9259979999999999E-8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>1.926998E-8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>1.9279970000000002E-8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>1.928997E-8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>1.9299970000000001E-8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>1.9309969999999999E-8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>1.9319970000000001E-8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>1.9329969999999999E-8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2.0100000000000001E-8</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.4999999</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>1.933997E-8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2.0105E-8</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.47499780000000003</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>1.9349970000000002E-8</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2.0109999999999999E-8</v>
+      </c>
+      <c r="M37" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.44999549999999999</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>1.935997E-8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2.0114999999999998E-8</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.42499330000000002</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>1.9369970000000001E-8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2.0120000000000001E-8</v>
+      </c>
+      <c r="M39" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.39999109999999999</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>1.9379969999999999E-8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2.0125E-8</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.37498890000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>1.9389970000000001E-8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2.0129999999999999E-8</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.34998659999999998</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>1.9399959999999999E-8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2.0135000000000001E-8</v>
+      </c>
+      <c r="M42" s="1">
+        <v>-8.7809579999999996E-6</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.32498440000000001</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>1.940996E-8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2.014E-8</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2.69279E-5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.29998219999999998</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>1.9419959999999998E-8</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2.0144999999999999E-8</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.99955150000000004</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.2749799</v>
+      </c>
+      <c r="O44" s="1">
+        <v>2.3931380000000002E-6</v>
+      </c>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>1.942996E-8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2.0149999999999998E-8</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.99999979999999999</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.2499778</v>
+      </c>
+      <c r="O45" s="1">
+        <v>5.3854080000000003E-10</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>1.9439960000000001E-8</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2.0155000000000001E-8</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.99999979999999999</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.22497549999999999</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1.3991709999999999E-13</v>
+      </c>
+      <c r="P46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>1.9449959999999999E-8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2.016001E-8</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.19997329999999999</v>
+      </c>
+      <c r="O47" s="1">
+        <v>-4.1975029999999997E-13</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>1.9459960000000001E-8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2.0165009999999999E-8</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.17497109999999999</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-6.9958319999999996E-13</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>1.9469959999999999E-8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2.0170010000000001E-8</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.14996889999999999</v>
+      </c>
+      <c r="O49" s="1">
+        <v>-9.7941650000000008E-13</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>1.947996E-8</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2.017501E-8</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.1249666</v>
+      </c>
+      <c r="O50" s="1">
+        <v>-1.2592489999999999E-12</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>1.9489960000000002E-8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2.0180009999999999E-8</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>9.9964440000000002E-2</v>
+      </c>
+      <c r="O51" s="1">
+        <v>-1.2592489999999999E-12</v>
+      </c>
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>1.949996E-8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2.0185010000000002E-8</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>7.4962200000000007E-2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>-1.678999E-12</v>
+      </c>
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>1.9509950000000001E-8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2.0190010000000001E-8</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="N53" s="1">
+        <v>4.9959959999999998E-2</v>
+      </c>
+      <c r="O53" s="1">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>1.9519949999999999E-8</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2.019501E-8</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2.4957719999999999E-2</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>1.9529950000000001E-8</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2.0199999999999999E-8</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>1.9539949999999999E-8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>1.954995E-8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>1.9559949999999998E-8</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>1.956995E-8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>1.9579950000000001E-8</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>1.9589949999999999E-8</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>1.9599950000000001E-8</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>1.9609949999999999E-8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>1.961994E-8</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="1">
+        <v>1.9629939999999998E-8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>1.963994E-8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
+        <v>1.9649940000000001E-8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="1">
+        <v>1.9659939999999999E-8</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="1">
+        <v>1.9669940000000001E-8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>1.9679939999999999E-8</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
+        <v>1.968994E-8</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>1.9699939999999998E-8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="1">
+        <v>1.970994E-8</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="1">
+        <v>1.9719940000000001E-8</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="1">
+        <v>1.9729939999999999E-8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="1">
+        <v>1.9739930000000001E-8</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="1">
+        <v>1.9749929999999999E-8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="1">
+        <v>1.975993E-8</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
+        <v>1.9769929999999999E-8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="1">
+        <v>1.977993E-8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="1">
+        <v>1.9789930000000001E-8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="1">
+        <v>1.9799929999999999E-8</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="1">
+        <v>1.9809930000000001E-8</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="1">
+        <v>1.9819929999999999E-8</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>1.982993E-8</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>1.9839929999999999E-8</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="1">
+        <v>1.984992E-8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>1.9859920000000001E-8</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="1">
+        <v>1.986992E-8</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="1">
+        <v>1.9879920000000001E-8</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="1">
+        <v>1.9889919999999999E-8</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="1">
+        <v>1.989992E-8</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="1">
+        <v>1.9909919999999999E-8</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
+        <v>1.991992E-8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="1">
+        <v>1.9929920000000001E-8</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="1">
+        <v>1.993992E-8</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>1.9949920000000001E-8</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="1">
+        <v>1.9959909999999999E-8</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>1.9969910000000001E-8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="1">
+        <v>1.9979909999999999E-8</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" s="1">
+        <v>1.998991E-8</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="1">
+        <v>1.9999910000000002E-8</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.399154E-12</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="1">
+        <v>2.000991E-8</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-3.5463599999999997E-8</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.95044850000000003</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="1">
+        <v>2.0019910000000001E-8</v>
+      </c>
+      <c r="C104" s="1">
+        <v>-4.4708449999999997E-8</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.90045299999999995</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="1">
+        <v>2.0029909999999999E-8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>-5.9561469999999997E-8</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.85045740000000003</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="1">
+        <v>2.0039910000000001E-8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>-8.9205739999999995E-8</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.8004618</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="1">
+        <v>2.0049909999999999E-8</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-1.7757220000000001E-7</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.75046630000000003</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="1">
+        <v>2.005991E-8</v>
+      </c>
+      <c r="C108" s="1">
+        <v>-1.852815E-5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.7004707</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="1">
+        <v>2.0069900000000002E-8</v>
+      </c>
+      <c r="C109" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.65047509999999997</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="1">
+        <v>2.00799E-8</v>
+      </c>
+      <c r="C110" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.6004796</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="1">
+        <v>2.0089900000000001E-8</v>
+      </c>
+      <c r="C111" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.55048410000000003</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" s="1">
+        <v>2.0099899999999999E-8</v>
+      </c>
+      <c r="C112" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.5004885</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B113" s="1">
+        <v>2.0109900000000001E-8</v>
+      </c>
+      <c r="C113" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.45049289999999997</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="1">
+        <v>2.0119899999999999E-8</v>
+      </c>
+      <c r="C114" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.4004973</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B115" s="1">
+        <v>2.01299E-8</v>
+      </c>
+      <c r="C115" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.35050179999999997</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="1">
+        <v>2.0139900000000002E-8</v>
+      </c>
+      <c r="C116" s="1">
+        <v>-1.8498549999999999E-5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.3005062</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="1">
+        <v>2.01499E-8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0.99988739999999998</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.25051060000000003</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1.1954560000000001E-6</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="1">
+        <v>2.0159900000000001E-8</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.2005151</v>
+      </c>
+      <c r="E118" s="1">
+        <v>6.7439910000000002E-11</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B119" s="1">
+        <v>2.0169899999999999E-8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.1505195</v>
+      </c>
+      <c r="E119" s="1">
+        <v>-9.0945910000000003E-13</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B120" s="1">
+        <v>2.0179900000000001E-8</v>
+      </c>
+      <c r="C120" s="1">
+        <v>0.99999990000000005</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.1005239</v>
+      </c>
+      <c r="E120" s="1">
+        <v>-1.329208E-12</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="1">
+        <v>2.0189889999999999E-8</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5.0528410000000003E-2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B122" s="1">
+        <v>2.019989E-8</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5.3286550000000005E-4</v>
+      </c>
+      <c r="E122" s="1">
+        <v>-6.9958529999999999E-14</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="1">
+        <v>2.0209890000000002E-8</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="1">
+        <v>2.021989E-8</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="1">
+        <v>2.0229890000000001E-8</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>2.0239889999999999E-8</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>2.0249890000000001E-8</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>2.0259889999999999E-8</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>2.026989E-8</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>2.0279890000000002E-8</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B131" s="1">
+        <v>2.028989E-8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B132" s="1">
+        <v>2.0299880000000001E-8</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B133" s="1">
+        <v>2.0309879999999999E-8</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B134" s="1">
+        <v>2.0319880000000001E-8</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B135" s="1">
+        <v>2.0329879999999999E-8</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B136" s="1">
+        <v>2.033988E-8</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B137" s="1">
+        <v>2.0349879999999998E-8</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B138" s="1">
+        <v>2.035988E-8</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>2.0369880000000001E-8</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B140" s="1">
+        <v>2.0379879999999999E-8</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B141" s="1">
+        <v>2.0389880000000001E-8</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B142" s="1">
+        <v>2.0399879999999999E-8</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B143" s="1">
+        <v>2.040987E-8</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B144" s="1">
+        <v>2.0419869999999998E-8</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B145" s="1">
+        <v>2.042987E-8</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" s="1">
+        <v>2.0439870000000001E-8</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B147" s="1">
+        <v>2.0449869999999999E-8</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B148" s="1">
+        <v>2.0459870000000001E-8</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B149" s="1">
+        <v>2.0469869999999999E-8</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B150" s="1">
+        <v>2.047987E-8</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B151" s="1">
+        <v>2.0489869999999998E-8</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B152" s="1">
+        <v>2.049987E-8</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B153" s="1">
+        <v>2.0509870000000001E-8</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B154" s="1">
+        <v>2.0519859999999999E-8</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B155" s="1">
+        <v>2.0529860000000001E-8</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B156" s="1">
+        <v>2.0539859999999999E-8</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B157" s="1">
+        <v>2.054986E-8</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
+        <v>2.0559859999999999E-8</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B159" s="1">
+        <v>2.056986E-8</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B160" s="1">
+        <v>2.0579860000000001E-8</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B161" s="1">
+        <v>2.0589859999999999E-8</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B162" s="1">
+        <v>2.0599860000000001E-8</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B163" s="1">
+        <v>2.0609859999999999E-8</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B164" s="1">
+        <v>2.061986E-8</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B165" s="1">
+        <v>2.0629859999999998E-8</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B166" s="1">
+        <v>2.063985E-8</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B167" s="1">
+        <v>2.0649850000000001E-8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B168" s="1">
+        <v>2.065985E-8</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B169" s="1">
+        <v>2.0669850000000001E-8</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B170" s="1">
+        <v>2.0679849999999999E-8</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B171" s="1">
+        <v>2.068985E-8</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B172" s="1">
+        <v>2.0699849999999999E-8</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B173" s="1">
+        <v>2.070985E-8</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B174" s="1">
+        <v>2.0719850000000001E-8</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B175" s="1">
+        <v>2.072985E-8</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B176" s="1">
+        <v>2.0739850000000001E-8</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>2.0749839999999999E-8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B178" s="1">
+        <v>2.0759840000000001E-8</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B179" s="1">
+        <v>2.0769839999999999E-8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B180" s="1">
+        <v>2.077984E-8</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B181" s="1">
+        <v>2.0789840000000001E-8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B182" s="1">
+        <v>2.079984E-8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B183" s="1">
+        <v>2.0809840000000001E-8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B184" s="1">
+        <v>2.0819839999999999E-8</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B185" s="1">
+        <v>2.0829840000000001E-8</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B186" s="1">
+        <v>2.0839839999999999E-8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B187" s="1">
+        <v>2.084984E-8</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B188" s="1">
+        <v>2.0859830000000002E-8</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B189" s="1">
+        <v>2.086983E-8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B190" s="1">
+        <v>2.0879830000000001E-8</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B191" s="1">
+        <v>2.0889829999999999E-8</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B192" s="1">
+        <v>2.0899830000000001E-8</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B193" s="1">
+        <v>2.0909829999999999E-8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>2.091983E-8</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B195" s="1">
+        <v>2.0929830000000002E-8</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B196" s="1">
+        <v>2.093983E-8</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B197" s="1">
+        <v>2.0949830000000001E-8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>1</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B198" s="1">
+        <v>2.0959829999999999E-8</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B199" s="1">
+        <v>2.0969820000000001E-8</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B200" s="1">
+        <v>2.0979819999999999E-8</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B201" s="1">
+        <v>2.098982E-8</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B202" s="1">
+        <v>2.0999999999999999E-8</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H242"/>
   <sheetViews>
